--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87EA74E-92A5-E747-8186-E2D2D315CD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A3E99-639C-D44C-A0DC-66D32A353279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{CF3B6C10-564E-6C47-BF90-881FFD30946E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{CF3B6C10-564E-6C47-BF90-881FFD30946E}"/>
   </bookViews>
   <sheets>
-    <sheet name="ColumnHeaders_discreterates" sheetId="1" r:id="rId1"/>
-    <sheet name="ColumnHeaders_ncplter" sheetId="5" r:id="rId2"/>
-    <sheet name="Personnel" sheetId="2" r:id="rId3"/>
-    <sheet name="Keywords" sheetId="3" r:id="rId4"/>
-    <sheet name="CustomUnits" sheetId="4" r:id="rId5"/>
+    <sheet name="Personnel" sheetId="2" r:id="rId1"/>
+    <sheet name="Keywords" sheetId="3" r:id="rId2"/>
+    <sheet name="CustomUnits" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,28 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
-  <si>
-    <t>attributeName</t>
-  </si>
-  <si>
-    <t>attributeDefinition</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>dateTimeFormatString</t>
-  </si>
-  <si>
-    <t>missingValueCode</t>
-  </si>
-  <si>
-    <t>missingValueCodeExplanation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>givenName</t>
   </si>
@@ -160,27 +137,6 @@
     <t>dissolved nutrients</t>
   </si>
   <si>
-    <t>utc_datetime</t>
-  </si>
-  <si>
-    <t>matlab_date</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>gop</t>
-  </si>
-  <si>
-    <t>ncp</t>
-  </si>
-  <si>
-    <t>ncp_per_gop</t>
-  </si>
-  <si>
     <t>Rachel</t>
   </si>
   <si>
@@ -205,24 +161,6 @@
     <t>Cahill</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD hh:mm:ss</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Missing value</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -238,69 +176,9 @@
     <t>description</t>
   </si>
   <si>
-    <t>matlab_datetime</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
-    <t>O2_Ar_corrected</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>biosat</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>micromolePerMeterSquaredPerDay</t>
   </si>
   <si>
-    <t>Date and time in UTC</t>
-  </si>
-  <si>
-    <t>Longitude of sample event</t>
-  </si>
-  <si>
-    <t>Temperature of sampling</t>
-  </si>
-  <si>
-    <t>Rate of net community production integrated over the mixed layer</t>
-  </si>
-  <si>
-    <t>Gas transfer velocity that was used when calculating ncp from the O2/Ar ratio</t>
-  </si>
-  <si>
-    <t>celsius</t>
-  </si>
-  <si>
-    <t>UTC date and time in MATLAB serial date number format</t>
-  </si>
-  <si>
-    <t>Latitude of sample event</t>
-  </si>
-  <si>
-    <t>Oxygen-argon ratio corrected for air values</t>
-  </si>
-  <si>
-    <t>Net community production divided by gross oxygen production</t>
-  </si>
-  <si>
-    <t>Gross oxygen production</t>
-  </si>
-  <si>
-    <t>Biological saturation, the oxygen-argon ratio divided by the equilibrium value of that ratio</t>
-  </si>
-  <si>
-    <t>metersPerDay</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -308,16 +186,13 @@
   </si>
   <si>
     <t>micromoles per meter squared per day</t>
-  </si>
-  <si>
-    <t>Salinity of sampling in PSU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,19 +204,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,17 +230,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,347 +550,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300E580E-9872-3C47-9F26-CB26D2AA2A1F}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0071034-F558-3442-A5A5-7B575AAA2C10}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE34D23-6A2F-1B40-8E13-5B7029FB5DC6}">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -1042,196 +558,200 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF5D68B-26C3-CF4A-AD51-038276905488}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1255,70 +775,71 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1326,11 +847,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D43B32-8CAF-2745-823B-E8670DAD0CFB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1341,36 +862,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A3E99-639C-D44C-A0DC-66D32A353279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCE47A-332E-8244-8A5B-9682918A16D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{CF3B6C10-564E-6C47-BF90-881FFD30946E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{CF3B6C10-564E-6C47-BF90-881FFD30946E}"/>
   </bookViews>
   <sheets>
     <sheet name="Personnel" sheetId="2" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE34D23-6A2F-1B40-8E13-5B7029FB5DC6}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,22 +597,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -641,7 +635,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -655,16 +649,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -701,16 +701,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -757,8 +757,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{3C924EAE-23DB-FC44-B11F-9D8181C4E41B}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{B0D07594-A248-DB43-B313-F7B6B1E7F002}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{A5D3B873-D896-E142-A592-9E6C4820010E}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B0D07594-A248-DB43-B313-F7B6B1E7F002}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{A5D3B873-D896-E142-A592-9E6C4820010E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -851,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D43B32-8CAF-2745-823B-E8670DAD0CFB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>givenName</t>
   </si>
@@ -219,6 +219,24 @@
   </si>
   <si>
     <t>inorganic matter</t>
+  </si>
+  <si>
+    <t>iode_quality_flag</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>quality not evaluated, not available or unknown</t>
+  </si>
+  <si>
+    <t>questionable/suspect</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>missing data</t>
   </si>
 </sst>
 </file>
@@ -592,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -631,6 +649,61 @@
       </c>
       <c r="C3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>givenName</t>
   </si>
@@ -170,9 +170,6 @@
     <t>primary production</t>
   </si>
   <si>
-    <t>dissolved oxygen</t>
-  </si>
-  <si>
     <t>Kate</t>
   </si>
   <si>
@@ -237,6 +234,15 @@
   </si>
   <si>
     <t>missing data</t>
+  </si>
+  <si>
+    <t>Northeast U.S. Continental Shelf</t>
+  </si>
+  <si>
+    <t>NOAA Large Marine Ecosystems</t>
+  </si>
+  <si>
+    <t>gross primary production</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C8"/>
     </sheetView>
   </sheetViews>
@@ -620,90 +626,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -925,19 +931,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -969,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -997,7 +1003,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1029,14 +1035,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -1079,7 +1090,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -1091,7 +1102,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F93D6B-3081-4084-81AE-568C275C4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="-30828" yWindow="-4548" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -22,12 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -101,9 +96,6 @@
     <t>0000-0001-9620-5382</t>
   </si>
   <si>
-    <t>metadataProvider</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
@@ -164,9 +156,6 @@
     <t>molePerMeterSquaredPerDay</t>
   </si>
   <si>
-    <t>principalInvestigator</t>
-  </si>
-  <si>
     <t>primary production</t>
   </si>
   <si>
@@ -243,12 +232,18 @@
   </si>
   <si>
     <t>gross primary production</t>
+  </si>
+  <si>
+    <t>principal Investigator</t>
+  </si>
+  <si>
+    <t>metadata Provider</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -615,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -626,90 +621,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -718,11 +713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -788,19 +783,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -817,19 +812,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -846,22 +841,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -875,16 +870,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -917,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -931,22 +926,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -960,11 +955,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -972,10 +967,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
@@ -987,66 +982,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,7 +1053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1073,36 +1068,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
       <c r="D2">
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-summer-2018/ncp-gop-transect-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F93D6B-3081-4084-81AE-568C275C4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93EF958-AD48-41A3-B022-140A1307A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-4548" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25104" yWindow="-2916" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategoricalVariables" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>givenName</t>
   </si>
@@ -234,17 +234,23 @@
     <t>gross primary production</t>
   </si>
   <si>
-    <t>principal Investigator</t>
-  </si>
-  <si>
     <t>metadata Provider</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>net ecosystem production</t>
+  </si>
+  <si>
+    <t>net community production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +269,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,13 +302,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -856,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -912,7 +926,7 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -941,7 +955,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -968,10 +982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1045,10 +1059,18 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
